--- a/数据整理/stocks/A股/创业板/300659-中孚信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300659-中孚信息.xlsx
@@ -451,575 +451,773 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8878</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8558</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7571</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6924</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5887</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5329</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>011060</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>西部利得策略优选混合C</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>89.67</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>4.39</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>671010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>西部利得策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160325</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>70.76</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519005</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>海富通股票混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002980</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏创新前沿股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>88.94</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001809</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信建投智信物联网灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008084</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海富通先进制造股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>9.78</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008085</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>海富通先进制造股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>9.78</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003717</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009327</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009328</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004636</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中信建投智信物联网灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007423</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>西部利得聚禾灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>69.50</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007424</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>西部利得聚禾灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>69.50</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010484</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>海富通科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009025</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>海富通科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009651</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>9.29</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009652</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>9.29</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1029,7 +1227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,15 +1248,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1070,26 +1278,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002952</t>
+          <t>519005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信多因子量化股票</t>
+          <t>海富通股票混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.48</t>
+          <t>30.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6200</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1098,26 +1316,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000828</t>
+          <t>002980</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利转型机遇股票</t>
+          <t>华夏创新前沿股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>27.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0069</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1126,26 +1354,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004724</t>
+          <t>008085</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>先锋聚元灵活配置混合A</t>
+          <t>海富通先进制造股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4452</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1154,26 +1392,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004725</t>
+          <t>009025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>先锋聚元灵活配置混合C</t>
+          <t>海富通科技创新混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3533</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1182,26 +1430,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006401</t>
+          <t>001809</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合A</t>
+          <t>中信建投智信物联网灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3095</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006402</t>
+          <t>001113</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合C</t>
+          <t>南方大数据100指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>24.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1238,25 +1506,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000166</t>
+          <t>010282</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中海信息产业精选混合</t>
+          <t>中信建投智享生活混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>56.97</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1266,26 +1544,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010135</t>
+          <t>008084</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰达宏利高研发创新6个月持有期混合A</t>
+          <t>海富通先进制造股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.37</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1294,25 +1582,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010136</t>
+          <t>000828</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰达宏利高研发创新6个月持有期混合C</t>
+          <t>泰达宏利转型机遇股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.37</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010282</t>
+          <t>004636</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中信建投智享生活混合A</t>
+          <t>中信建投智信物联网灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010283</t>
+          <t>009651</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中信建投智享生活混合C</t>
+          <t>海富通成长甄选混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001113</t>
+          <t>010135</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>南方大数据100指数A</t>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004344</t>
+          <t>009024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方大数据100指数C</t>
+          <t>海富通科技创新混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>519005</t>
+          <t>009652</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海富通股票混合</t>
+          <t>海富通成长甄选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8.71</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001809</t>
+          <t>000166</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中信建投智信物联网灵活配置混合A</t>
+          <t>中海信息产业精选混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.68</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004636</t>
+          <t>010283</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中信建投智信物联网灵活配置混合C</t>
+          <t>中信建投智享生活混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.68</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009025</t>
+          <t>006401</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海富通科技创新混合A</t>
+          <t>先锋量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9.98</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009024</t>
+          <t>002952</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海富通科技创新混合C</t>
+          <t>建信多因子量化股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>9.98</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002980</t>
+          <t>010136</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华夏创新前沿股票</t>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>87.78</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008085</t>
+          <t>004344</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海富通先进制造股票A</t>
+          <t>南方大数据100指数C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008084</t>
+          <t>004724</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海富通先进制造股票C</t>
+          <t>先锋聚元灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009651</t>
+          <t>004725</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海富通成长甄选混合A</t>
+          <t>先锋聚元灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1686,26 +2114,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009652</t>
+          <t>006402</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海富通成长甄选混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300659-中孚信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300659-中孚信息.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2123,6 @@
           <t>先锋量化优选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>93.83</t>
@@ -2138,6 +2138,288 @@
       </c>
       <c r="H24" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9529</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300659-中孚信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300659-中孚信息.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2425,4 +2426,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0374</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9932</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9403</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5401</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4247</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3603</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3039</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>49.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300659-中孚信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300659-中孚信息.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3280,4 +3281,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300659-中孚信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300659-中孚信息.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3289,7 +3290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3300,17 +3301,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3320,14 +3341,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.58</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8840</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3336,14 +3379,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.1</v>
       </c>
     </row>
     <row r="4">
@@ -3352,14 +3417,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.88</v>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3507</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3368,13 +3455,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002421</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华增强债券A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002422</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华增强债券C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300659-中孚信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300659-中孚信息.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3992,7 +3993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4003,17 +4004,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4023,14 +4044,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.72</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9588</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4039,14 +4082,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.58</v>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4055,14 +4120,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>1.1</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="5">
@@ -4071,14 +4242,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>5.88</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="6">
@@ -4087,13 +4258,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>19</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300659-中孚信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300659-中孚信息.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4163,7 +4164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4174,17 +4175,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4194,14 +4215,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.06</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2849</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4210,14 +4253,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.72</v>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4226,14 +4291,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>8.58</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="5">
@@ -4242,14 +4413,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>1.1</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="6">
@@ -4258,14 +4429,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5.88</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="7">
@@ -4274,13 +4445,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>19</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300659-中孚信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300659-中孚信息.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.51</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3.06</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>6.72</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>8.58</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>1.1</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>5.88</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8.1</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,112 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012930</t>
+          <t>540002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值先锋股票</t>
+          <t>汇丰晋信龙腾混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.55</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2849</t>
+          <t>0.2742</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>540002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信龙腾混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2184</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006195</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国金量化多因子股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -836,26 +777,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.59</t>
+          <t>50.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9588</t>
+          <t>2.2849</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -864,36 +805,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>540002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>汇丰晋信龙腾混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>37.81</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0946</t>
+          <t>0.2184</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -902,36 +843,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005417</t>
+          <t>006195</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
+          <t>国金量化多因子股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>37.81</t>
+          <t>80.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -940,6 +881,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9588</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1641,7 +1752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2495,7 +2606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2777,7 +2888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3700,7 +3811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300659-中孚信息.xlsx
+++ b/数据整理/stocks/A股/创业板/300659-中孚信息.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.27</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.51</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3.06</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>6.72</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>8.58</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>1.1</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>5.88</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,806 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>19</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>8.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8878</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8558</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7571</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6924</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5887</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5329</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1410,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8516</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4900</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014131</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞聚优智选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方碳中和股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞聚优智选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016014</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方碳中和股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -703,176 +2008,6 @@
       </c>
       <c r="H2" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012930</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚价值先锋股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>50.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2849</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>540002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信龙腾混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2184</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006195</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国金量化多因子股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -947,26 +2082,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.59</t>
+          <t>50.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9588</t>
+          <t>2.2849</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -975,36 +2110,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>540002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>汇丰晋信龙腾混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>37.81</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0946</t>
+          <t>0.2184</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1013,36 +2148,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005417</t>
+          <t>006195</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
+          <t>国金量化多因子股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>37.81</t>
+          <t>80.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1051,6 +2186,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9588</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1752,7 +3057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2606,7 +3911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2888,7 +4193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3809,780 +5114,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>海富通股票混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>46.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.8878</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002980</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏创新前沿股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8558</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160325</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>30.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>70.76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7571</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008085</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>海富通先进制造股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.78</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6924</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001809</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中信建投智信物联网灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5887</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009025</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>海富通科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5329</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009651</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1904</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>671010</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>西部利得策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1536</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008084</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>海富通先进制造股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9.78</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1418</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004636</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中信建投智信物联网灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1060</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>海富通科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0800</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009652</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9.29</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0632</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009327</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007423</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>西部利得聚禾灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>69.50</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003717</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007424</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>西部利得聚禾灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>69.50</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009328</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011060</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>西部利得策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010484</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>